--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -7,9 +7,9 @@
     <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="账号信息" sheetId="3" r:id="rId3"/>
+    <sheet name="代币" sheetId="1" r:id="rId1"/>
+    <sheet name="账号信息(efan)" sheetId="2" r:id="rId2"/>
+    <sheet name="账号信息(wuexin)" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>代币</t>
+  </si>
+  <si>
+    <t>官网地址</t>
+  </si>
+  <si>
+    <t>空投地址</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>telegram</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
   <si>
     <t>wuexin</t>
   </si>
@@ -66,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,87 +115,64 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -214,6 +217,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -230,8 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,17 +448,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,8 +484,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +495,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,9 +540,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,28 +553,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,118 +583,118 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,14 +1056,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="19.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="46" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1065,7 +1106,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1082,7 +1123,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1096,72 +1137,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="19.2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="19.2" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="19.2" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="19.2" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="19.2" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="代币" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+  <si>
+    <t>全称</t>
+  </si>
   <si>
     <t>代币</t>
   </si>
   <si>
+    <t>链</t>
+  </si>
+  <si>
+    <t>合约地址</t>
+  </si>
+  <si>
     <t>官网地址</t>
   </si>
   <si>
@@ -35,6 +44,15 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>carboncoin</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>火币</t>
   </si>
   <si>
     <t>wuexin</t>
@@ -84,8 +102,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -113,12 +131,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -126,6 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -133,22 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,25 +184,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,31 +230,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,25 +275,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,157 +437,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +466,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,8 +528,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,30 +539,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,11 +560,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,23 +1074,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="16.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="19.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="4" width="13.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="20.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="19.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,8 +1110,27 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="46" customHeight="1"/>
+    <row r="2" ht="46" customHeight="1" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1122,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1137,72 +1175,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="19.2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="19.2" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="19.2" spans="1:2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="19.2" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="19.2" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="代币" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>全称</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>pethsusie641551@gmail.com</t>
-  </si>
-  <si>
-    <t>aw4srf6tg</t>
   </si>
   <si>
     <t>pethsusrj@yahoo.com.us</t>
@@ -102,8 +99,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -124,6 +121,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -131,52 +144,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,21 +249,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,12 +272,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,169 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,17 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +534,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -557,15 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,34 +583,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,94 +619,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -723,7 +720,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1073,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1160,8 +1157,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1233,14 +1230,12 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11"/>
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" t="s">
         <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="代币" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>全称</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>火币</t>
+  </si>
+  <si>
+    <t>0xbA693A75bfA952ebAA3aA6Da6F09489b124c3745</t>
+  </si>
+  <si>
+    <t>https://twitter.com/truecarboncoin</t>
+  </si>
+  <si>
+    <t>wuexin 已领 2945</t>
   </si>
   <si>
     <t>wuexin</t>
@@ -99,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -127,6 +136,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,32 +158,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,30 +210,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,38 +234,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -247,17 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,23 +489,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,11 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,16 +544,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,19 +592,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,112 +613,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,17 +1082,18 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
-    <col min="2" max="4" width="13.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="20.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="19.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="12.775" customWidth="1"/>
+    <col min="2" max="3" width="13.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="46.25" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="48.75" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
   </cols>
@@ -1117,7 +1127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="46" customHeight="1" spans="1:3">
+    <row r="2" ht="127" customHeight="1" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1126,6 +1136,15 @@
       </c>
       <c r="C2" t="s">
         <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1163,7 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1157,85 +1176,84 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="78.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="78.8916666666667" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="33.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" ht="19.2" spans="1:2">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" ht="19.2" spans="1:2">
+    <row r="3" ht="17.25" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="19.2" spans="1:2">
+    <row r="4" ht="17.25" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" ht="19.2" spans="1:2">
+    <row r="5" ht="17.25" spans="1:2">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" ht="19.2" spans="1:2">
+    <row r="6" ht="17.25" spans="1:2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11"/>
+        <v>25</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1275,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="代币" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -136,6 +136,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -143,16 +158,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +204,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -173,8 +219,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,84 +260,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,17 +477,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -495,11 +484,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,21 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -543,17 +538,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +563,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,149 +580,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +731,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1082,13 +1085,13 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.775" customWidth="1"/>
+    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
     <col min="2" max="3" width="13.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="46.25" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
@@ -1131,7 +1134,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -1163,7 +1166,7 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1180,13 +1183,13 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="78.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="78.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="33.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1194,7 +1197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:2">
+    <row r="2" ht="19.2" spans="1:2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:2">
+    <row r="3" ht="19.2" spans="1:2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:2">
+    <row r="4" ht="19.2" spans="1:2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:2">
+    <row r="5" ht="19.2" spans="1:2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:2">
+    <row r="6" ht="19.2" spans="1:2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1275,7 +1278,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="代币" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>全称</t>
   </si>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>wuexin 已领 2945</t>
+  </si>
+  <si>
+    <t>uniswap</t>
+  </si>
+  <si>
+    <t>UNIO</t>
+  </si>
+  <si>
+    <t>以太坊</t>
+  </si>
+  <si>
+    <t>0xA9c185a947e7517a321C714A0911FB9647A1eeE6</t>
+  </si>
+  <si>
+    <t>https://unioswap.com/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/UNIOSWAP</t>
+  </si>
+  <si>
+    <t>20号结束预售，关注</t>
   </si>
   <si>
     <t>wuexin</t>
@@ -108,12 +129,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +157,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -144,53 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,32 +270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,22 +280,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,13 +295,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,11 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,21 +534,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -525,6 +544,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,26 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,137 +620,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +762,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1083,15 +1120,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="12.775" customWidth="1"/>
     <col min="2" max="3" width="13.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="46.25" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
@@ -1150,7 +1187,38 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" ht="114" customHeight="1" spans="1:9">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://unioswap.com/"/>
+    <hyperlink ref="F3" r:id="rId1" display="https://unioswap.com/"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://twitter.com/UNIOSWAP"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1166,7 +1234,7 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1183,80 +1251,80 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="78.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="78.8916666666667" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="33.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" ht="19.2" spans="1:2">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" ht="19.2" spans="1:2">
+    <row r="3" ht="17.25" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" ht="19.2" spans="1:2">
+    <row r="4" ht="17.25" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" ht="19.2" spans="1:2">
+    <row r="5" ht="17.25" spans="1:2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" ht="19.2" spans="1:2">
+    <row r="6" ht="17.25" spans="1:2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1346,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>全称</t>
   </si>
@@ -55,7 +55,10 @@
     <t>火币</t>
   </si>
   <si>
-    <t>0xbA693A75bfA952ebAA3aA6Da6F09489b124c3745</t>
+    <t>0xb33f14abc51d2ce14fe45ac1ee6eb21d6948cc5f</t>
+  </si>
+  <si>
+    <t>https://www.carboncoin.site/?f=F7tjDQ&amp;__cf_chl_jschl_tk__=64600bba909df9656a9687b8dcf105fe52e62de5-1623644532-0-ASVcxMrKIUmnzfBsNCRcFz4TWacBkILSbiNfSASCzDDzz8AUzFmlr2LnCGWwgdpjtA_RBcT0xQDwpgh8BlDZuYgDN5V7e6B8s_vK27l5dJ8O6GATfQwimSwITFuLpGQC88q-kXzfN8vvHtBxzO_DnilJXo6YLwbDj1spGnpR1YdrD0kA51Dn2SJ9vfsupv5qUlO79l2IrJcdzEj5AlStuxjB4OBVD4jj1B1H6rQmTLWzr9OquwYZj2t6681RTsaK5j6sYnb6FSA-XPPbj6ehqrS0sbptUHUag3BECzVbJ1Nq9cBfQUznwgoQ6mHHqY0fm0XcwoHu9FNQOpXQAeHSz50uDjer8SsPPXfpGWwiyGTmlNG02Hk77wpbAcy5s81Hp9fTvRoUIeLwJb4x6eF3aKw</t>
   </si>
   <si>
     <t>https://twitter.com/truecarboncoin</t>
@@ -82,7 +85,34 @@
     <t>https://twitter.com/UNIOSWAP</t>
   </si>
   <si>
-    <t>20号结束预售，关注</t>
+    <t>6月20号结束预售，关注</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProjectMars</t>
+  </si>
+  <si>
+    <t>MARS</t>
+  </si>
+  <si>
+    <t>Fantom Opera</t>
+  </si>
+  <si>
+    <t>0xbe41772587872a92184873d55b09c6bb6f59f895</t>
+  </si>
+  <si>
+    <t>https://www.projectmars.finance/</t>
+  </si>
+  <si>
+    <t>https://projectmars.medium.com/airdrop-extended-to-06-16th-18abb079769f</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ProjectMarsFTM</t>
+  </si>
+  <si>
+    <t>https://t.me/projectmars_ftm</t>
+  </si>
+  <si>
+    <t>6月16号关注</t>
   </si>
   <si>
     <t>wuexin</t>
@@ -129,8 +159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -173,6 +203,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -180,14 +241,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -195,39 +293,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,67 +329,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -309,13 +339,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,13 +417,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,19 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,127 +495,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,21 +530,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,16 +549,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,8 +598,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -575,28 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,16 +650,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,112 +671,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -763,11 +793,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1120,21 +1150,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="12.775" customWidth="1"/>
-    <col min="2" max="3" width="13.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="46.25" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="5" max="5" width="54.875" customWidth="1"/>
+    <col min="6" max="6" width="72" customWidth="1"/>
     <col min="7" max="7" width="48.75" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1180,37 +1211,69 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="114" customHeight="1" spans="1:9">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="73" customHeight="1" spans="1:9">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1218,6 +1281,11 @@
     <hyperlink ref="E3" r:id="rId1" display="https://unioswap.com/"/>
     <hyperlink ref="F3" r:id="rId1" display="https://unioswap.com/"/>
     <hyperlink ref="G3" r:id="rId2" display="https://twitter.com/UNIOSWAP"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://projectmars.medium.com/airdrop-extended-to-06-16th-18abb079769f"/>
+    <hyperlink ref="E4" r:id="rId4" display="https://www.projectmars.finance/"/>
+    <hyperlink ref="G4" r:id="rId5" display="https://twitter.com/ProjectMarsFTM"/>
+    <hyperlink ref="H4" r:id="rId6" display="https://t.me/projectmars_ftm"/>
+    <hyperlink ref="E2" r:id="rId7" display="https://www.carboncoin.site/?f=F7tjDQ&amp;__cf_chl_jschl_tk__=64600bba909df9656a9687b8dcf105fe52e62de5-1623644532-0-ASVcxMrKIUmnzfBsNCRcFz4TWacBkILSbiNfSASCzDDzz8AUzFmlr2LnCGWwgdpjtA_RBcT0xQDwpgh8BlDZuYgDN5V7e6B8s_vK27l5dJ8O6GATfQwimSwITFuLpGQC88q-kXzfN8vvHtBxzO_DnilJXo6YLwbDj1spGnpR1YdrD0kA51Dn2SJ9vfsupv5qUlO79l2IrJcdzEj5AlStuxjB4OBVD4jj1B1H6rQmTLWzr9OquwYZj2t6681RTsaK5j6sYnb6FSA-XPPbj6ehqrS0sbptUHUag3BECzVbJ1Nq9cBfQUznwgoQ6mHHqY0fm0XcwoHu9FNQOpXQAeHSz50uDjer8SsPPXfpGWwiyGTmlNG02Hk77wpbAcy5s81Hp9fTvRoUIeLwJb4x6eF3aKw"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1248,7 +1316,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1262,69 +1330,69 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>全称</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>6月16号关注</t>
+  </si>
+  <si>
+    <t>YFINONE</t>
+  </si>
+  <si>
+    <t>YFIN</t>
+  </si>
+  <si>
+    <t>0xda15cb0d2bDBe0041832abd5f18103Db4fA56153</t>
+  </si>
+  <si>
+    <t>https://yfin.one/sales/a528d7</t>
+  </si>
+  <si>
+    <t>https://twitter.com/YFINONE</t>
+  </si>
+  <si>
+    <t>https://t.me/YFINONE</t>
+  </si>
+  <si>
+    <t>6月15号关注</t>
   </si>
   <si>
     <t>wuexin</t>
@@ -159,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -203,6 +224,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -210,16 +246,45 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,91 +299,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,6 +319,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -339,31 +360,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,19 +492,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,127 +522,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +569,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,15 +633,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,50 +651,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +671,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,13 +1171,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
@@ -1251,7 +1272,7 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
@@ -1274,6 +1295,35 @@
       </c>
       <c r="I4" s="6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1286,6 +1336,10 @@
     <hyperlink ref="G4" r:id="rId5" display="https://twitter.com/ProjectMarsFTM"/>
     <hyperlink ref="H4" r:id="rId6" display="https://t.me/projectmars_ftm"/>
     <hyperlink ref="E2" r:id="rId7" display="https://www.carboncoin.site/?f=F7tjDQ&amp;__cf_chl_jschl_tk__=64600bba909df9656a9687b8dcf105fe52e62de5-1623644532-0-ASVcxMrKIUmnzfBsNCRcFz4TWacBkILSbiNfSASCzDDzz8AUzFmlr2LnCGWwgdpjtA_RBcT0xQDwpgh8BlDZuYgDN5V7e6B8s_vK27l5dJ8O6GATfQwimSwITFuLpGQC88q-kXzfN8vvHtBxzO_DnilJXo6YLwbDj1spGnpR1YdrD0kA51Dn2SJ9vfsupv5qUlO79l2IrJcdzEj5AlStuxjB4OBVD4jj1B1H6rQmTLWzr9OquwYZj2t6681RTsaK5j6sYnb6FSA-XPPbj6ehqrS0sbptUHUag3BECzVbJ1Nq9cBfQUznwgoQ6mHHqY0fm0XcwoHu9FNQOpXQAeHSz50uDjer8SsPPXfpGWwiyGTmlNG02Hk77wpbAcy5s81Hp9fTvRoUIeLwJb4x6eF3aKw"/>
+    <hyperlink ref="E5" r:id="rId8" display="https://yfin.one/sales/a528d7"/>
+    <hyperlink ref="F5" r:id="rId8" display="https://yfin.one/sales/a528d7"/>
+    <hyperlink ref="G5" r:id="rId9" display="https://twitter.com/YFINONE"/>
+    <hyperlink ref="H5" r:id="rId10" display="https://t.me/YFINONE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1330,69 +1384,69 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="14400" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="代币" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>全称</t>
   </si>
@@ -67,7 +67,7 @@
     <t>wuexin 已领 2945</t>
   </si>
   <si>
-    <t>uniswap</t>
+    <t>unioswap</t>
   </si>
   <si>
     <t>UNIO</t>
@@ -134,6 +134,54 @@
   </si>
   <si>
     <t>6月15号关注</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>0xfc07d3e0fd60e2ab9ad87618da70d25a2506589f</t>
+  </si>
+  <si>
+    <t>https://chacoin.org/7e8be2e#/home</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>https://catcoin.link/m?eth=0xbA693A75bfA952ebAA3aA6Da6F09489b124c3745</t>
+  </si>
+  <si>
+    <t>VDOGE</t>
+  </si>
+  <si>
+    <t>Morpher</t>
+  </si>
+  <si>
+    <t>MPH</t>
+  </si>
+  <si>
+    <t>https://www.morpher.com/invite/xuanl</t>
+  </si>
+  <si>
+    <t>Axolotl</t>
+  </si>
+  <si>
+    <t>AXO</t>
+  </si>
+  <si>
+    <t>https://axo2moon.com/</t>
+  </si>
+  <si>
+    <t>MXB</t>
+  </si>
+  <si>
+    <t>0XAF51E51D15EB826E860D35BF3D0598328A537DDC</t>
+  </si>
+  <si>
+    <t>https://www.mxbtoken.com/?dre=1B488</t>
+  </si>
+  <si>
+    <t>已拿到MXB 2000557个</t>
   </si>
   <si>
     <t>wuexin</t>
@@ -180,12 +228,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +264,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF030303"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -230,16 +284,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +361,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -261,91 +391,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,19 +414,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,163 +582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,6 +605,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,19 +670,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,54 +705,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -659,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,16 +725,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,112 +746,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -817,10 +871,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,13 +1225,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
@@ -1301,7 +1355,7 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
@@ -1324,6 +1378,102 @@
       </c>
       <c r="I5" s="6" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1340,6 +1490,14 @@
     <hyperlink ref="F5" r:id="rId8" display="https://yfin.one/sales/a528d7"/>
     <hyperlink ref="G5" r:id="rId9" display="https://twitter.com/YFINONE"/>
     <hyperlink ref="H5" r:id="rId10" display="https://t.me/YFINONE"/>
+    <hyperlink ref="E6" r:id="rId11" display="https://chacoin.org/7e8be2e#/home"/>
+    <hyperlink ref="F7" r:id="rId12" display="https://catcoin.link/m?eth=0xbA693A75bfA952ebAA3aA6Da6F09489b124c3745"/>
+    <hyperlink ref="E9" r:id="rId13" display="https://www.morpher.com/invite/xuanl"/>
+    <hyperlink ref="F9" r:id="rId13" display="https://www.morpher.com/invite/xuanl"/>
+    <hyperlink ref="E10" r:id="rId14" display="https://axo2moon.com/"/>
+    <hyperlink ref="F10" r:id="rId14" display="https://axo2moon.com/"/>
+    <hyperlink ref="E11" r:id="rId15" display="https://www.mxbtoken.com/?dre=1B488"/>
+    <hyperlink ref="F11" r:id="rId15" display="https://www.mxbtoken.com/?dre=1B488"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1384,69 +1542,69 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12390"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="代币" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>全称</t>
   </si>
@@ -182,6 +182,21 @@
   </si>
   <si>
     <t>已拿到MXB 2000557个</t>
+  </si>
+  <si>
+    <t>MoonEdge</t>
+  </si>
+  <si>
+    <t>MATIC</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>https://www.moonedge.finance.com</t>
+  </si>
+  <si>
+    <t>吴一新旧笔记本 chrome 6.23开始预售</t>
   </si>
   <si>
     <t>wuexin</t>
@@ -228,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -285,14 +300,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,105 +419,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -414,25 +429,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,151 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,43 +626,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,9 +649,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +668,39 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -713,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,16 +740,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,112 +761,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1474,6 +1489,23 @@
       </c>
       <c r="I11" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1498,6 +1530,7 @@
     <hyperlink ref="F10" r:id="rId14" display="https://axo2moon.com/"/>
     <hyperlink ref="E11" r:id="rId15" display="https://www.mxbtoken.com/?dre=1B488"/>
     <hyperlink ref="F11" r:id="rId15" display="https://www.mxbtoken.com/?dre=1B488"/>
+    <hyperlink ref="E12" r:id="rId16" display="https://www.moonedge.finance.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1542,69 +1575,69 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="14640" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="代币" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>全称</t>
   </si>
@@ -133,9 +133,6 @@
     <t>https://t.me/YFINONE</t>
   </si>
   <si>
-    <t>6月15号关注</t>
-  </si>
-  <si>
     <t>CHA</t>
   </si>
   <si>
@@ -197,6 +194,18 @@
   </si>
   <si>
     <t>吴一新旧笔记本 chrome 6.23开始预售</t>
+  </si>
+  <si>
+    <t>YEL</t>
+  </si>
+  <si>
+    <t>币安</t>
+  </si>
+  <si>
+    <t>0x7815bda662050d84718b988735218cffd32f75ea</t>
+  </si>
+  <si>
+    <t>https://yel.finance/</t>
   </si>
   <si>
     <t>wuexin</t>
@@ -243,9 +252,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -292,6 +301,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -299,52 +354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,6 +384,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -382,31 +408,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,6 +421,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -429,187 +438,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,11 +632,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +691,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -668,39 +701,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -720,6 +720,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -728,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,133 +749,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,10 +1249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1392,120 +1401,140 @@
         <v>37</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
         <v>53</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="I12" t="s">
         <v>58</v>
       </c>
-      <c r="I12" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1575,69 +1604,69 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
       <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>全称</t>
   </si>
@@ -133,6 +133,9 @@
     <t>https://t.me/YFINONE</t>
   </si>
   <si>
+    <t>6月15号关注</t>
+  </si>
+  <si>
     <t>CHA</t>
   </si>
   <si>
@@ -205,7 +208,7 @@
     <t>0x7815bda662050d84718b988735218cffd32f75ea</t>
   </si>
   <si>
-    <t>https://yel.finance/</t>
+    <t>https://yel.finance/airdrop</t>
   </si>
   <si>
     <t>wuexin</t>
@@ -252,8 +255,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -301,6 +304,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -308,126 +431,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -438,85 +441,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,97 +603,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,15 +636,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -677,36 +695,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -729,6 +717,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -737,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,16 +752,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,112 +773,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1401,140 +1404,140 @@
         <v>37</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
-        <v>62</v>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1560,6 +1563,8 @@
     <hyperlink ref="E11" r:id="rId15" display="https://www.mxbtoken.com/?dre=1B488"/>
     <hyperlink ref="F11" r:id="rId15" display="https://www.mxbtoken.com/?dre=1B488"/>
     <hyperlink ref="E12" r:id="rId16" display="https://www.moonedge.finance.com"/>
+    <hyperlink ref="E13" r:id="rId17" display="https://yel.finance/airdrop"/>
+    <hyperlink ref="F13" r:id="rId17" display="https://yel.finance/airdrop"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1604,69 +1609,69 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:2">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14640" windowHeight="11790"/>
+    <workbookView windowWidth="14880" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="代币" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>全称</t>
   </si>
@@ -209,6 +209,43 @@
   </si>
   <si>
     <t>https://yel.finance/airdrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclone Protocol
+</t>
+  </si>
+  <si>
+    <t>CYC</t>
+  </si>
+  <si>
+    <t>0x8861cff2366c1128fd699b68304ad99a0764ef9a</t>
+  </si>
+  <si>
+    <t>https://coinmarketcap.com/zh/currencies/cyclone-protocol/airdrop/</t>
+  </si>
+  <si>
+    <t>Ally Direct Token</t>
+  </si>
+  <si>
+    <t>DRCT</t>
+  </si>
+  <si>
+    <t>0xbA693A75bfA952ebAA3aA6Da6F09489b124c3745</t>
+  </si>
+  <si>
+    <t>https://coinmarketcap.com/zh/currencies/ally-direct-token/airdrop/</t>
+  </si>
+  <si>
+    <t>LOCGame</t>
+  </si>
+  <si>
+    <t>LOCG</t>
+  </si>
+  <si>
+    <t>0x60eb57d085c59932d5faa6c6026268a4386927d0</t>
+  </si>
+  <si>
+    <t>https://coinmarketcap.com/zh/currencies/locgame/airdrop/</t>
   </si>
   <si>
     <t>wuexin</t>
@@ -255,9 +292,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -311,6 +348,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -318,8 +363,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,14 +409,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +455,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -377,60 +468,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -441,31 +478,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,151 +652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +669,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -646,6 +727,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,35 +755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -708,30 +769,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -740,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,137 +789,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,6 +937,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1252,10 +1292,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1345,7 +1385,7 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1374,7 +1414,7 @@
       <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1403,7 +1443,7 @@
       <c r="H5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1538,6 +1578,66 @@
       </c>
       <c r="F13" s="4" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16">
+        <v>6.17</v>
       </c>
     </row>
   </sheetData>
@@ -1565,6 +1665,9 @@
     <hyperlink ref="E12" r:id="rId16" display="https://www.moonedge.finance.com"/>
     <hyperlink ref="E13" r:id="rId17" display="https://yel.finance/airdrop"/>
     <hyperlink ref="F13" r:id="rId17" display="https://yel.finance/airdrop"/>
+    <hyperlink ref="E14" r:id="rId18" display="https://coinmarketcap.com/zh/currencies/cyclone-protocol/airdrop/"/>
+    <hyperlink ref="E15" r:id="rId19" display="https://coinmarketcap.com/zh/currencies/ally-direct-token/airdrop/"/>
+    <hyperlink ref="E16" r:id="rId20" display="https://coinmarketcap.com/zh/currencies/locgame/airdrop/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1609,69 +1712,69 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/CryptoCoin Message.xlsx
+++ b/CryptoCoin Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14880" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="代币" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>全称</t>
   </si>
@@ -269,6 +269,9 @@
     <t>Fantom Opera地址</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t xml:space="preserve">Twitter </t>
   </si>
   <si>
@@ -285,6 +288,30 @@
   </si>
   <si>
     <t>(612) 888-0758</t>
+  </si>
+  <si>
+    <t>rienasjhbrnn@gmail.com</t>
+  </si>
+  <si>
+    <t>wu8816388721</t>
+  </si>
+  <si>
+    <t>r372e709ce5@candel.co.jp</t>
+  </si>
+  <si>
+    <t>wuexin1</t>
+  </si>
+  <si>
+    <t>seabreezedeane437273@gmail.com</t>
+  </si>
+  <si>
+    <t>seabreezederj@yahoo.com.us</t>
+  </si>
+  <si>
+    <t>(281) 937-2541</t>
+  </si>
+  <si>
+    <t>efanwu</t>
   </si>
 </sst>
 </file>
@@ -292,10 +319,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -342,7 +369,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,37 +443,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,16 +466,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,45 +489,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -478,109 +505,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,73 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +696,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -687,11 +747,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,60 +796,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -777,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,133 +816,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -929,11 +956,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1294,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1344,7 +1371,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -1367,7 +1394,7 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
@@ -1376,13 +1403,13 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -1393,7 +1420,7 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
@@ -1402,16 +1429,16 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -1422,7 +1449,7 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
@@ -1431,16 +1458,16 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -1480,7 +1507,7 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1499,10 +1526,10 @@
       <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1513,10 +1540,10 @@
       <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1533,10 +1560,10 @@
       <c r="D11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I11" t="s">
@@ -1553,7 +1580,7 @@
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I12" t="s">
@@ -1573,10 +1600,10 @@
       <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1593,7 +1620,7 @@
       <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>67</v>
       </c>
       <c r="I14">
@@ -1613,7 +1640,7 @@
       <c r="D15" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I15">
@@ -1633,7 +1660,7 @@
       <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="I16">
@@ -1695,13 +1722,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="78.8916666666667" customWidth="1"/>
@@ -1755,31 +1782,79 @@
         <v>78</v>
       </c>
     </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12">
+        <v>7606512084</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" display="pethsusrj@yahoo.com.us"/>
+    <hyperlink ref="B12" r:id="rId2" display="rienasjhbrnn@gmail.com" tooltip="mailto:rienasjhbrnn@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId3" display="seabreezedeane437273@gmail.com"/>
+    <hyperlink ref="D13" r:id="rId4" display="seabreezederj@yahoo.com.us"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
